--- a/Lop6/2021 - 2022/BTVN/Diem.xlsx
+++ b/Lop6/2021 - 2022/BTVN/Diem.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Điểm</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <r>
-      <t>Hưng làm bài tốt, còn 1 lỗi nhỏ sau:</t>
-    </r>
-    <r>
       <rPr>
         <b/>
         <sz val="11"/>
@@ -63,26 +60,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">
-Bài 3a: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Tại sao +2014 &gt; +2016, con xem lại đoạn nhầm lẫn này nhé.</t>
-    </r>
-  </si>
-  <si>
-    <t>ÔN TẬP CỘNG, TRỪ, NHÂN, CHIA CÁC SỐ TỰ NHIÊN</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Huy xem lại các bài sau:
+      <t>Hưng xem lại các bài sau
+Bài 6d:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Con chuyển về nhầm, đúng phải là 2x = 5 + 1
 </t>
     </r>
     <r>
@@ -94,17 +83,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Bài 1c:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Bài này làm bằng tính chất phân phối giữa phép nhân và phép cộng.
+      <t xml:space="preserve">Bài 6e: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Con chép đề sai, nhưng làm vẫn đúng. 
 </t>
     </r>
     <r>
@@ -116,17 +105,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Bài 2d:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Có 2 TH: x - 1 = 0 và 6 - 3x = 0.
+      <t xml:space="preserve">Bài 6g: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Con trình bày chưa tốt.
 </t>
     </r>
     <r>
@@ -138,22 +127,44 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Bài 3, 4, 5:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Con phải giải thích được từ đâu để có được đáp số đó. Con chỉ ghi đáp số thôi là không được.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">An trình bày chưa tốt, còn tẩy xóa nhiều, con xem lại các bài sau:
+      <t xml:space="preserve">Bài 8a: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Con chưa trình bày rõ, 10c &lt; 89a</t>
+    </r>
+  </si>
+  <si>
+    <t>Trường Giang</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hoài An xem lại các bài sau
+Bài 1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Con cần trình bày cách làm để suy kết quả và cần rút gọn hết.
 </t>
     </r>
     <r>
@@ -165,22 +176,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Bài 3:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Dần chứng chưa đủ thuyết phục để kết luận bài toán.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Tuân xem lại các bài sau:
+      <t xml:space="preserve">Bài 5, 6: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Con cần xem lại phần bài này ở trên lớp.
 </t>
     </r>
     <r>
@@ -192,23 +198,20 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Bài 3:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Con mở ngoặc sai dấu</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Con trình bày hơi lộn xộn. Con cần làm thêm 1 số bài sau:</t>
-    </r>
+      <t>Bài 7:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Giảm số bị chia là x - 124, con nhầm qua số chia r</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -218,18 +221,38 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Bài 1c d</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
+      <t xml:space="preserve">Tuân xem lại các bài sau
+Bài 8: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Con lấy TH1, TH2 ở đâu? Đoạn này thầy k thấy cần phải tách TH.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Giang xem lại các bài sau
+Bài 7: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Giảm số bị chia là x - 124, con nhầm qua số chia r</t>
+    </r>
+  </si>
+  <si>
+    <t>BÀI 7. LŨY THỪA VỚI SỐ MŨ TỰ NHIÊN</t>
   </si>
 </sst>
 </file>
@@ -295,7 +318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -321,14 +344,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -610,28 +636,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="65.85546875" style="11" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="11"/>
+    <col min="1" max="1" width="13.140625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="65.85546875" style="9" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="10"/>
+      <c r="B1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
@@ -647,26 +673,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
-        <v>6.75</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -677,18 +699,16 @@
         <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
-        <v>9</v>
-      </c>
+      <c r="B7" s="2"/>
       <c r="C7" s="3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -700,15 +720,26 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2">
+        <v>8</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Lop6/2021 - 2022/BTVN/Diem.xlsx
+++ b/Lop6/2021 - 2022/BTVN/Diem.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Điểm</t>
   </si>
@@ -253,6 +253,45 @@
   </si>
   <si>
     <t>BÀI 7. LŨY THỪA VỚI SỐ MŨ TỰ NHIÊN</t>
+  </si>
+  <si>
+    <r>
+      <t>Duy làm bài tốt, con chú ý thêm các vấn đề sau:
+- Con cần làm thêm</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Bài 7.
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Các bài toán tìm x cầm có kết luận ở cuối bài.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -639,7 +678,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,12 +712,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -711,13 +752,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2">
+        <v>7.5</v>
+      </c>
       <c r="C8" s="3" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="75" x14ac:dyDescent="0.25">

--- a/Lop6/2021 - 2022/BTVN/Diem.xlsx
+++ b/Lop6/2021 - 2022/BTVN/Diem.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Điểm</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>Đại Số:</t>
-  </si>
-  <si>
-    <t>Con chưa nộp bài</t>
   </si>
   <si>
     <t>Bảo Duy</t>
@@ -291,6 +288,164 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Huy xem lại các bài sau:
+Huy chưa làm hết bài, cần làm thêm bài 6
+Lưu ý: Phép lũy thừa # phép nhân</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài 3b:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Toàn bộ là phép nhân, không có phép cộng nào cả. Con nhầm r.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài 3c g h i:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Con xem lại trong phần bài trả của thầy nhé</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Uyên xem lại các bài sau:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Bài 4b: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">9.64 = 576 (không phải 586)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Bài 5a: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">16 # 2^8 (16 = 2^4) con lưu ý phép lũy thừa và phép nhân nhé.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Bài 7: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Giảm số bị chia là a - 124, con nhầm qua số chia r</t>
     </r>
   </si>
 </sst>
@@ -678,7 +833,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,7 +849,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" s="12"/>
     </row>
@@ -712,13 +867,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2">
+        <v>4.5</v>
+      </c>
       <c r="C4" s="3" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -729,7 +886,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -740,49 +897,51 @@
         <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2">
+        <v>7.5</v>
+      </c>
       <c r="C7" s="3" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2">
         <v>7.5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2">
         <v>9.75</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2">
         <v>8</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Lop6/2021 - 2022/BTVN/Diem.xlsx
+++ b/Lop6/2021 - 2022/BTVN/Diem.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Điểm</t>
   </si>
@@ -48,6 +48,23 @@
     <t>Gia Hưng</t>
   </si>
   <si>
+    <t>Trường Giang</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Huy xem lại các bài sau
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -57,18 +74,66 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Hưng xem lại các bài sau
-Bài 6d:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Con chuyển về nhầm, đúng phải là 2x = 5 + 1
+      <t xml:space="preserve"> Bài 1c:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Con chép đề thiếu ngoặc =&gt; sai
+-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Bài 2c:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Phép nhân thực hiện trước phép công, con đang làm ngược lại
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Bài 4: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Con trình bày bài, không ghi mình đáp số được. Con tham khảo bài trên lớp lại.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tuấn xem lại các bài sau:
 </t>
     </r>
     <r>
@@ -80,17 +145,25 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Bài 6e: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Con chép đề sai, nhưng làm vẫn đúng. 
+      <t>- Bài 3:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Tuân xem lại: Tính chất chia hết của một tổng (48 chia hết cho 8 thì k cần chứng minh).</t>
+    </r>
+  </si>
+  <si>
+    <t>Con chưa nộp bài</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Giang xem lại các bài sau:
 </t>
     </r>
     <r>
@@ -102,17 +175,22 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Bài 6g: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Con trình bày chưa tốt.
+      <t>- Bài 2b:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Con nhầm, đúng phải là: x = 305 + 102</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hưng xem lại các bài sau
 </t>
     </r>
     <r>
@@ -124,329 +202,27 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Bài 8a: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Con chưa trình bày rõ, 10c &lt; 89a</t>
-    </r>
-  </si>
-  <si>
-    <t>Trường Giang</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Hoài An xem lại các bài sau
-Bài 1:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Con cần trình bày cách làm để suy kết quả và cần rút gọn hết.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Bài 5, 6: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Con cần xem lại phần bài này ở trên lớp.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bài 7:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Giảm số bị chia là x - 124, con nhầm qua số chia r</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Tuân xem lại các bài sau
-Bài 8: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Con lấy TH1, TH2 ở đâu? Đoạn này thầy k thấy cần phải tách TH.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Giang xem lại các bài sau
-Bài 7: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Giảm số bị chia là x - 124, con nhầm qua số chia r</t>
-    </r>
-  </si>
-  <si>
-    <t>BÀI 7. LŨY THỪA VỚI SỐ MŨ TỰ NHIÊN</t>
-  </si>
-  <si>
-    <r>
-      <t>Duy làm bài tốt, con chú ý thêm các vấn đề sau:
-- Con cần làm thêm</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Bài 7.
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Các bài toán tìm x cầm có kết luận ở cuối bài.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Huy xem lại các bài sau:
-Huy chưa làm hết bài, cần làm thêm bài 6
-Lưu ý: Phép lũy thừa # phép nhân</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bài 3b:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Toàn bộ là phép nhân, không có phép cộng nào cả. Con nhầm r.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bài 3c g h i:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Con xem lại trong phần bài trả của thầy nhé</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Uyên xem lại các bài sau:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Bài 4b: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">9.64 = 576 (không phải 586)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Bài 5a: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">16 # 2^8 (16 = 2^4) con lưu ý phép lũy thừa và phép nhân nhé.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Bài 7: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Giảm số bị chia là a - 124, con nhầm qua số chia r</t>
-    </r>
+      <t>Bài 3d:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Con dùng nhầm tính chất, con xem lại nhé.</t>
+    </r>
+  </si>
+  <si>
+    <t>Uyên xem lại các bài sau:
+Bài 4b: 6 chia hết cho n =&gt; n = 1 2 3 6, con nhầm qua 4.
+Bài 4c: Con nhầm n + 1 và n.
+Bài 4d: Con trình bày rõ làm như thế nào để có n = 2</t>
+  </si>
+  <si>
+    <t>BÀI 8. THỨ TỰ THỰC HIỆN CÁC PHÉP TÍNH – TÍNH CHẤT CHIA HẾT</t>
   </si>
 </sst>
 </file>
@@ -512,7 +288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -540,9 +316,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -833,7 +606,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -848,10 +621,10 @@
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="12"/>
+      <c r="B1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
@@ -872,24 +645,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
-        <v>5</v>
-      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -897,32 +668,30 @@
         <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>7.5</v>
+        <v>9.25</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
-        <v>7.5</v>
-      </c>
+      <c r="B8" s="2"/>
       <c r="C8" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
@@ -930,17 +699,17 @@
         <v>9.75</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="B10" s="2">
-        <v>8</v>
-      </c>
-      <c r="C10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>13</v>
       </c>
     </row>

--- a/Lop6/2021 - 2022/BTVN/Diem.xlsx
+++ b/Lop6/2021 - 2022/BTVN/Diem.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Điểm</t>
   </si>
@@ -216,13 +216,149 @@
     </r>
   </si>
   <si>
-    <t>Uyên xem lại các bài sau:
-Bài 4b: 6 chia hết cho n =&gt; n = 1 2 3 6, con nhầm qua 4.
-Bài 4c: Con nhầm n + 1 và n.
-Bài 4d: Con trình bày rõ làm như thế nào để có n = 2</t>
-  </si>
-  <si>
     <t>BÀI 8. THỨ TỰ THỰC HIỆN CÁC PHÉP TÍNH – TÍNH CHẤT CHIA HẾT</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">An xem lại các bài sau:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- Bài 1a: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Con chép sai đề (thiếu mũ 2 ở số cuối)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Bài 4b:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Con nhầm số 3 và số 6, con xem lại
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- Bài 4 c, d: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Con xem lại bài trên lớp của thầy nhé.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Uyên xem lại các bài sau:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài 4b:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 6 chia hết cho n =&gt; n = 1 2 3 6, con nhầm qua 4.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài 4c:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Con nhầm n + 1 và n.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Bài 4d: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Con trình bày rõ làm như thế nào để có n = 2</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -605,8 +741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,7 +758,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" s="11"/>
     </row>
@@ -651,13 +787,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2">
+        <v>8</v>
+      </c>
       <c r="C5" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -679,7 +817,7 @@
         <v>9.25</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/Lop6/2021 - 2022/BTVN/Diem.xlsx
+++ b/Lop6/2021 - 2022/BTVN/Diem.xlsx
@@ -741,8 +741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Lop6/2021 - 2022/BTVN/Diem.xlsx
+++ b/Lop6/2021 - 2022/BTVN/Diem.xlsx
@@ -51,63 +51,243 @@
     <t>Trường Giang</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Huy xem lại các bài sau
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Bài 1c:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Con chép đề thiếu ngoặc =&gt; sai
--</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Bài 2c:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Phép nhân thực hiện trước phép công, con đang làm ngược lại
-- </t>
+    <t>Con chưa nộp bài</t>
+  </si>
+  <si>
+    <t>BÀI 9. DẤU HIỆU CHIA HẾT CHO 2, CHO 5, CHO 3, CHO 9</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hưng xem lại các bài sau:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài 3b:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Con thiếu a = 8.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Bài 4b: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Con xem lại phần lời giải, bị thừa phần [Những không chia hết cho 5]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Bài 4c: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Các số chia hết cho 5 nhưng không chia hết cho 2 có tận cùng là 5, con nhầm r =&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Bài 4d </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cũng sai.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">An xem lại các bài sau:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài 1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Con nhầm dấu hiệu chia hết. Chia hết cho 2 thì tận cùng là 0 2 4 6 8. Chia hết cho 5 thì tận cùng là 0 5. Không liên quan đến tổng các chữ số nhé.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Bài 2b: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Con nhầm, số bé nhất là 3085.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Bài 3: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Con xem lại bài tập trên lớp thầy hướng dẫn nhé, con làm như trong bài là không được rồi.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Giang xem lại các bài sau:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Bài 1c: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Con đọc nhầm đề, đề bài là </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>KHÔNG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> chia hết.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Bài 3: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Con làm đúng nhưng kết luận bị ngược a và b cho nhau.
+</t>
     </r>
     <r>
       <rPr>
@@ -128,236 +308,198 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Con trình bày bài, không ghi mình đáp số được. Con tham khảo bài trên lớp lại.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Tuấn xem lại các bài sau:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- Bài 3:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Tuân xem lại: Tính chất chia hết của một tổng (48 chia hết cho 8 thì k cần chứng minh).</t>
-    </r>
-  </si>
-  <si>
-    <t>Con chưa nộp bài</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Giang xem lại các bài sau:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- Bài 2b:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Con nhầm, đúng phải là: x = 305 + 102</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Hưng xem lại các bài sau
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bài 3d:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Con dùng nhầm tính chất, con xem lại nhé.</t>
-    </r>
-  </si>
-  <si>
-    <t>BÀI 8. THỨ TỰ THỰC HIỆN CÁC PHÉP TÍNH – TÍNH CHẤT CHIA HẾT</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">An xem lại các bài sau:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- Bài 1a: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Con chép sai đề (thiếu mũ 2 ở số cuối)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- Bài 4b:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Con nhầm số 3 và số 6, con xem lại
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- Bài 4 c, d: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Con xem lại bài trên lớp của thầy nhé.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Uyên xem lại các bài sau:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bài 4b:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 6 chia hết cho n =&gt; n = 1 2 3 6, con nhầm qua 4.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bài 4c:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Con nhầm n + 1 và n.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Bài 4d: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Con trình bày rõ làm như thế nào để có n = 2</t>
+      <t xml:space="preserve">Con cần trình bày lời giải, làm như thế nào để có được đáp số. Con chỉ ghi đáp số là chưa được.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Bài 5: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nếu giải ra số không nguyên, thì con kết luận là không tìm được nhé.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Uyên xem lại các bài sau
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài 2b:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Con nhầm, số bé nhất là 3085.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài 3c:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> TH2: b= 5 con giải sai, a = 7 (Không phải = 8).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Bài 4b: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Con nhầm, con phải trừ đi các số chia hết cho cả 2 và 5 nhé.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tuân xem lại bài sau:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài 5:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Cách làm của con vẫn OK, nhưng con suy nghĩ thêm cách làm khác để không phải tính toán nhiều như hiện tại.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Huy xem lại các bài sau:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài 2a:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Số lớn nhất là 8530
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Bài 3b: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">a = {2; 5; 8} con phải tìm hết giá trị thỏa mãn nhé.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài 3c:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Con cần trình bày rõ ràng, tại sao để có được đáp số. Không nên ghi chỉ mình đáp số như thế.</t>
     </r>
   </si>
 </sst>
@@ -742,14 +884,14 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" style="9" customWidth="1"/>
     <col min="2" max="2" width="8.28515625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="65.85546875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="72" style="9" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
@@ -758,7 +900,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C1" s="11"/>
     </row>
@@ -776,26 +918,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>5.25</v>
+        <v>7.5</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -806,7 +948,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -814,10 +956,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>9.25</v>
+        <v>8.25</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -826,29 +968,29 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>9.75</v>
+        <v>8.75</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Lop6/2021 - 2022/BTVN/Diem.xlsx
+++ b/Lop6/2021 - 2022/BTVN/Diem.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Điểm</t>
   </si>
@@ -51,456 +51,299 @@
     <t>Trường Giang</t>
   </si>
   <si>
+    <t>BÀI 10. ƯỚC VÀ BỘI</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tuân xem lại các bài sau:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Bài 6: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Con nhầm 41 - 6 = 35 (không phải 55)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hưng xem lại các bài sau:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài 2a:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Ước của 16 thiếu 8, con xem lại nhé.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Bài 4: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Con phải ghi đầy đủ ước của 40 ra nhé.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Bài 5b: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Con nhầm: x - 1 = 1 =&gt; x = 2; x - 1 = 7 =&gt; x = 8.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài 5d:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Tại sao lại loại giá trị 0? Con nhầm đoạn này r.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">An xem lại các bài sau:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài 3b:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Con thiếu giá trị 60
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài 3c:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Con thiếu giá trị 2 và 18</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Giang xem lại các bài sau:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài 3c:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Con thừa giá trị 18
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Bài 7: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài này không chia TH như vậy, x và y là 2 đại lượng xuất hiện đồng thời, con cần xét trường hợp đồng thời xảy ra,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Uyên xem lại các bài sau:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Bài 1b: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Con thiếu giá trị 35.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài 2a:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Ước của 18 thiếu giá trị 18
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài 4:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Ước của 40 thiếu giá trị 8</t>
+    </r>
+  </si>
+  <si>
     <t>Con chưa nộp bài</t>
-  </si>
-  <si>
-    <t>BÀI 9. DẤU HIỆU CHIA HẾT CHO 2, CHO 5, CHO 3, CHO 9</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Hưng xem lại các bài sau:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bài 3b:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Con thiếu a = 8.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Bài 4b: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Con xem lại phần lời giải, bị thừa phần [Những không chia hết cho 5]
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Bài 4c: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Các số chia hết cho 5 nhưng không chia hết cho 2 có tận cùng là 5, con nhầm r =&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Bài 4d </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cũng sai.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">An xem lại các bài sau:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bài 1:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Con nhầm dấu hiệu chia hết. Chia hết cho 2 thì tận cùng là 0 2 4 6 8. Chia hết cho 5 thì tận cùng là 0 5. Không liên quan đến tổng các chữ số nhé.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Bài 2b: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Con nhầm, số bé nhất là 3085.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Bài 3: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Con xem lại bài tập trên lớp thầy hướng dẫn nhé, con làm như trong bài là không được rồi.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Giang xem lại các bài sau:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Bài 1c: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Con đọc nhầm đề, đề bài là </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>KHÔNG</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> chia hết.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Bài 3: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Con làm đúng nhưng kết luận bị ngược a và b cho nhau.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Bài 4: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Con cần trình bày lời giải, làm như thế nào để có được đáp số. Con chỉ ghi đáp số là chưa được.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Bài 5: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Nếu giải ra số không nguyên, thì con kết luận là không tìm được nhé.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Uyên xem lại các bài sau
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bài 2b:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Con nhầm, số bé nhất là 3085.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bài 3c:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> TH2: b= 5 con giải sai, a = 7 (Không phải = 8).
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Bài 4b: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Con nhầm, con phải trừ đi các số chia hết cho cả 2 và 5 nhé.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Tuân xem lại bài sau:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bài 5:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Cách làm của con vẫn OK, nhưng con suy nghĩ thêm cách làm khác để không phải tính toán nhiều như hiện tại.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Huy xem lại các bài sau:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bài 2a:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Số lớn nhất là 8530
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Bài 3b: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">a = {2; 5; 8} con phải tìm hết giá trị thỏa mãn nhé.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bài 3c:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Con cần trình bày rõ ràng, tại sao để có được đáp số. Không nên ghi chỉ mình đáp số như thế.</t>
-    </r>
   </si>
 </sst>
 </file>
@@ -884,7 +727,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -900,7 +743,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" s="11"/>
     </row>
@@ -918,29 +761,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
-        <v>7.5</v>
-      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>5</v>
+        <v>7.75</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -948,7 +789,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -956,7 +797,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>8.25</v>
+        <v>9.75</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>15</v>
@@ -968,7 +809,7 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -976,18 +817,18 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>14</v>

--- a/Lop6/2021 - 2022/BTVN/Diem.xlsx
+++ b/Lop6/2021 - 2022/BTVN/Diem.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Điểm</t>
   </si>
@@ -344,6 +344,122 @@
   </si>
   <si>
     <t>Con chưa nộp bài</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Huy xem lại các bài sau:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài 1b:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Con thiếu giá trị 14.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài 2:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Con cần tìm toàn bộ giá trị ước như trên lớp nhé.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài 3:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Con cần trình bày rõ Ước và Bội của số, đặc biệt trong bài c d e.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Bài 4: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Con phải trình bày rõ Ư(40) là những số nào nhé.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài 5:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Tương tự
+Do khi trình bày con k trình bày rõ, nên con hay bị thiếu, bị sai. Con cần trình bày lại</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -727,7 +843,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,13 +877,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2">
+        <v>6.5</v>
+      </c>
       <c r="C4" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">

--- a/Lop6/2021 - 2022/BTVN/Diem.xlsx
+++ b/Lop6/2021 - 2022/BTVN/Diem.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Điểm</t>
   </si>
@@ -51,7 +51,7 @@
     <t>Trường Giang</t>
   </si>
   <si>
-    <t>BÀI 10. ƯỚC VÀ BỘI</t>
+    <t>BÀI 11. SỐ NGUYÊN TỐ- HỢP SỐ - PHÂN TÍCH THÀNH SỐ NGUYÊN TỐ</t>
   </si>
   <si>
     <r>
@@ -67,17 +67,132 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Bài 6: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Con nhầm 41 - 6 = 35 (không phải 55)</t>
+      <t xml:space="preserve">Bài 7: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Tại sao p = 1 3 7 9, p  có thể là 11 13 …, p + 8 và p + 10 là 2 trường hợp xảy ra đồng thời, không phải câu a, câu b
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài 3.2:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Con cần trình bày rõ làm sao để có đáp sô (ở đây dùng phân tích thừa số nguyên tố)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài 3.4:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đây là bài toán chứng minh, con cần chứng mình chứ không tim p.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Uyên xem lại các bài sau:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Bài 1: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Số 0 không phải hợp số, cũng không phải nguyên tố.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Bài 3b, c: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Con nhầm hợp số và nguyên tố, số chia hết cho 1 số (khác 1 và khác chỉnh nó) thì là hợp số nhé.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài 7:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> p + 8 và p + 10 là 2 trường hợp xảy ra đồng thời, không phải câu a, câu b</t>
     </r>
   </si>
   <si>
@@ -94,83 +209,155 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Bài 2a:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Ước của 16 thiếu 8, con xem lại nhé.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Bài 4: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Con phải ghi đầy đủ ước của 40 ra nhé.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Bài 5b: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Con nhầm: x - 1 = 1 =&gt; x = 2; x - 1 = 7 =&gt; x = 8.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bài 5d:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Tại sao lại loại giá trị 0? Con nhầm đoạn này r.</t>
+      <t>Bài 2b:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 51 là hợp số (chia hết cho 3).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài 2c:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Thiếu 47 67.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài 7:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Con cần lý luận thêm các giá trị &gt; 3 tại sao không thỏa mãn.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Bài 3.4: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Đây là bài chứng minh, không phải là bài tìm p, con cần phải chứng minh</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Huy xem lại các bài sau:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Bài 2b: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">51 là hợp số (chia hết cho 3).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài 3c:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 611 chia hết cho 13 nên là hợp số
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Bài 4 5 6: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Con xem lại bài hướng dẫn của thầy trên lớp nhé.
+Huy xem lại các bài phân tích thừa số nguyên tố, phần này con chưa chú ý r</t>
     </r>
   </si>
   <si>
@@ -187,40 +374,65 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Bài 3b:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Con thiếu giá trị 60
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bài 3c:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Con thiếu giá trị 2 và 18</t>
-    </r>
+      <t>Bài 1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Số 0 không phải hợp số, cũng không phải nguyên tố.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Bào 2c: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Thiếu 17 37 47 67 97
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Bài 5 6 : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Con phân tích thành thừa số nguyên tố. Sau đó tìm tích của các số sao cho liên tiếp là được =&gt; con xem lại bài trên lớp của thầy nhé.</t>
+    </r>
+  </si>
+  <si>
+    <t>x</t>
   </si>
   <si>
     <r>
@@ -236,229 +448,111 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Bài 3c:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Con thừa giá trị 18
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Bài 7: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bài này không chia TH như vậy, x và y là 2 đại lượng xuất hiện đồng thời, con cần xét trường hợp đồng thời xảy ra,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Uyên xem lại các bài sau:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Bài 1b: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Con thiếu giá trị 35.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bài 2a:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Ước của 18 thiếu giá trị 18
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bài 4:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Ước của 40 thiếu giá trị 8</t>
-    </r>
-  </si>
-  <si>
-    <t>Con chưa nộp bài</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Huy xem lại các bài sau:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bài 1b:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Con thiếu giá trị 14.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bài 2:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Con cần tìm toàn bộ giá trị ước như trên lớp nhé.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bài 3:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Con cần trình bày rõ Ước và Bội của số, đặc biệt trong bài c d e.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Bài 4: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Con phải trình bày rõ Ư(40) là những số nào nhé.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bài 5:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Tương tự
-Do khi trình bày con k trình bày rõ, nên con hay bị thiếu, bị sai. Con cần trình bày lại</t>
+      <t xml:space="preserve">Bài 2c: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Thiếu 47 67.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài 8:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Con cần suy nghĩ thêm cách làm, chứ không khi đáp số như thế.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Duy xem lại các bài sau:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài 1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Số 0 không phải hợp số, cũng không phải nguyên tố.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài 2c:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Con xem lai: 27, 57, 87 là hợp số.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Bài 3a: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>195 + 2010 = 2205 (không phải 405)
+Con đang nộp thiếu bài ạ, phần từ bài 4 trở đi</t>
     </r>
   </si>
 </sst>
@@ -525,7 +619,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -559,6 +653,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -843,7 +943,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -870,86 +970,88 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="12" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
-        <v>6.5</v>
+      <c r="B4" s="13">
+        <v>7.25</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
-        <v>7.75</v>
+      <c r="B5" s="13">
+        <v>6.25</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
-        <v>10</v>
+      <c r="B6" s="13">
+        <v>9</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
-        <v>9.75</v>
+      <c r="B7" s="13">
+        <v>9</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="13" t="s">
+        <v>16</v>
+      </c>
       <c r="C8" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
-        <v>8.5</v>
+      <c r="B9" s="13">
+        <v>8.25</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Lop6/2021 - 2022/BTVN/Diem.xlsx
+++ b/Lop6/2021 - 2022/BTVN/Diem.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Điểm</t>
   </si>
@@ -495,6 +495,80 @@
   </si>
   <si>
     <t>BÀI 13. ƯỚC CHUNG – ƯỚC CHUNG LỚN NHẤT</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Uyên xem lại các bài sau:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài 2:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Phần tìm UC của con bị thiếu. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Bài 6: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Đề bài không cho a lớn nhất, bài này phải tìm UC, con làm thiếu.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài 9:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Cách con làm không phải là chứng minh toán. Con cần đưa dẫn chứng để kết luận, không thể lấy ví dụ được.</t>
+    </r>
+  </si>
+  <si>
+    <t>Con chưa nộp bài.</t>
   </si>
 </sst>
 </file>
@@ -566,18 +640,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -600,6 +668,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -883,35 +957,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="72" style="9" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="13.140625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="72" style="7" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="13"/>
+      <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -922,10 +996,10 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="9">
         <v>8.25</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -933,21 +1007,21 @@
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="9">
         <v>5.25</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="9">
         <v>9.25</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -955,24 +1029,30 @@
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="3"/>
+      <c r="B7" s="9">
+        <v>8.75</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="3"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="9">
         <v>8.75</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -980,10 +1060,10 @@
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="9">
         <v>8</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>14</v>
       </c>
     </row>
